--- a/biology/Zoologie/Deutsches_Entomologisches_Institut/Deutsches_Entomologisches_Institut.xlsx
+++ b/biology/Zoologie/Deutsches_Entomologisches_Institut/Deutsches_Entomologisches_Institut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Deutsches Entomologisches Institut (DEI) est une institution de recherche fondée en 1886 comme fondation privée par Ernst Gustav Kraatz (1831-1909), professeur à l’université Humboldt de Berlin. À l’origine, la fondation se nommait Muséum entomologique national allemand et devrait être rattaché au Märkischen Provinzialmuseum. Mais ce rapprochement ne s’est pas fait et l’organisme a continué de fonctionner comme un institut privé coexistant avec le musée d'histoire naturelle de Berlin.
 En 1920, cette institution a élargi son champ d’investigation d’origine, la taxinomie, à l’entomologie appliquée et a alors abandonné son nom de Muséum pour adopter celui d’Institut. En 1922, il a été rebaptisé en Kaiser-Wilhelm-Gesellschaft zur Förderung der Wissenschaften (ou Société de l’empereur Guillaume pour la promotion des sciences).
@@ -517,6 +529,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
